--- a/scrap_data_from_website/shoreside_lms/Shoreside_LMS_loans.xlsx
+++ b/scrap_data_from_website/shoreside_lms/Shoreside_LMS_loans.xlsx
@@ -12,9 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1745,7 +1743,7 @@
   <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3167,7 +3165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>266</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>268</v>
       </c>
@@ -3195,7 +3193,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>271</v>
       </c>
@@ -3209,7 +3207,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>274</v>
       </c>
@@ -3223,7 +3221,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>276</v>
       </c>
@@ -3237,7 +3235,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>278</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>281</v>
       </c>
@@ -3265,7 +3263,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>284</v>
       </c>
@@ -3279,7 +3277,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>287</v>
       </c>
@@ -3293,7 +3291,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>289</v>
       </c>
@@ -3307,7 +3305,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>292</v>
       </c>
@@ -3321,7 +3319,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>295</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>298</v>
       </c>
@@ -3349,7 +3347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>300</v>
       </c>
@@ -3363,7 +3361,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>302</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>304</v>
       </c>
@@ -3391,7 +3389,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>306</v>
       </c>
@@ -3405,7 +3403,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>308</v>
       </c>
@@ -3419,7 +3417,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>310</v>
       </c>
@@ -3433,7 +3431,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>312</v>
       </c>
@@ -3447,7 +3445,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>315</v>
       </c>
@@ -3461,7 +3459,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>317</v>
       </c>
@@ -3475,7 +3473,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>319</v>
       </c>
@@ -3489,7 +3487,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>321</v>
       </c>
@@ -3503,7 +3501,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>323</v>
       </c>
@@ -3517,7 +3515,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>326</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>328</v>
       </c>
@@ -3545,7 +3543,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>331</v>
       </c>
@@ -3559,7 +3557,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>333</v>
       </c>
@@ -3573,7 +3571,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>335</v>
       </c>
@@ -3587,7 +3585,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>338</v>
       </c>
@@ -3601,7 +3599,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>340</v>
       </c>
@@ -3615,7 +3613,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>343</v>
       </c>
@@ -3629,7 +3627,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>345</v>
       </c>
@@ -3643,7 +3641,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>347</v>
       </c>
@@ -3657,7 +3655,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>349</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>352</v>
       </c>
@@ -3685,7 +3683,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>354</v>
       </c>
@@ -3699,7 +3697,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>357</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>359</v>
       </c>
@@ -3727,7 +3725,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>361</v>
       </c>
@@ -3741,7 +3739,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>364</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>367</v>
       </c>
@@ -3769,7 +3767,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>370</v>
       </c>
@@ -3783,7 +3781,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>373</v>
       </c>
@@ -3797,7 +3795,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>376</v>
       </c>
@@ -3811,7 +3809,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>379</v>
       </c>
@@ -3825,7 +3823,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>382</v>
       </c>
@@ -3839,7 +3837,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>385</v>
       </c>
@@ -3853,7 +3851,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>387</v>
       </c>
@@ -3867,7 +3865,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>389</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>391</v>
       </c>
@@ -3895,7 +3893,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>393</v>
       </c>
@@ -3909,7 +3907,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>396</v>
       </c>
@@ -3923,7 +3921,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>398</v>
       </c>
@@ -3937,7 +3935,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>400</v>
       </c>
@@ -3951,7 +3949,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>402</v>
       </c>
@@ -3965,7 +3963,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>404</v>
       </c>
@@ -3979,7 +3977,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>406</v>
       </c>
@@ -3993,7 +3991,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>409</v>
       </c>
@@ -4007,7 +4005,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>412</v>
       </c>
@@ -4021,7 +4019,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>414</v>
       </c>
@@ -4035,7 +4033,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>416</v>
       </c>
@@ -4049,7 +4047,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>418</v>
       </c>
@@ -4063,7 +4061,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>421</v>
       </c>
@@ -4077,7 +4075,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>423</v>
       </c>
@@ -4091,7 +4089,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>425</v>
       </c>
@@ -4105,7 +4103,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>428</v>
       </c>
@@ -4119,7 +4117,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>430</v>
       </c>
@@ -4137,28 +4135,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>